--- a/Analisis_de_Dastos/Analisis_de_Dastos_prueba_Práctica.xlsx
+++ b/Analisis_de_Dastos/Analisis_de_Dastos_prueba_Práctica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f3265a940198fb2/Documentos/Cursos/Desarrollo Web/Udemy-Proyects/Analisis_de_Dastos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE19511D-8FE9-4B14-8D54-AE0298891976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BE19511D-8FE9-4B14-8D54-AE0298891976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEC19946-D960-4400-B286-63D958F2616D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="687" xr2:uid="{DAE56F27-0D4E-4098-B5FB-029649444D46}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="8325" tabRatio="687" activeTab="5" xr2:uid="{DAE56F27-0D4E-4098-B5FB-029649444D46}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,6 @@
     <sheet name="Presentación" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Análisis!$E$48:$E$52</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Análisis!$F$47</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Análisis!$F$48:$F$52</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Análisis!$E$48:$E$52</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Análisis!$F$47</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Análisis!$F$48:$F$52</definedName>
     <definedName name="_xlchart.v2.0" hidden="1">Análisis!$E$48:$E$52</definedName>
     <definedName name="_xlchart.v2.1" hidden="1">Análisis!$F$47</definedName>
     <definedName name="_xlchart.v2.10" hidden="1">Análisis!$F$47</definedName>
@@ -1052,19 +1046,7 @@
     <cellStyle name="Título 3" xfId="1" builtinId="18"/>
     <cellStyle name="Total" xfId="2" builtinId="25"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
@@ -1073,12 +1055,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -5933,6 +5909,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29115129925635075"/>
+          <c:y val="3.0888043408645573E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11048,7 +11032,7 @@
     <dataField name="Monto Ventas" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -11217,10 +11201,10 @@
     <dataField name="Venta Total" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="6">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11988,7 +11972,7 @@
     <dataField name="Ventas por Año" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="9">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12079,19 +12063,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17EDC090-45BA-4CA0-83B8-47FC03B38F6B}" name="Customers" displayName="Customers" ref="A1:G21" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17EDC090-45BA-4CA0-83B8-47FC03B38F6B}" name="Customers" displayName="Customers" ref="A1:G21" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
   <autoFilter ref="A1:G21" xr:uid="{663282DA-BE6D-4BA1-AE11-FF6B8DD4BB08}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
     <sortCondition ref="E1:E21"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FB3343D2-9B5C-4B08-B7E9-357FA59D1CBE}" name="CustomerKey" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{7421F27D-03E2-444C-AA6E-90890FED1AE4}" name="Customer ID" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{B3757213-A6EB-4CB4-850D-97295F99C216}" name="Customer" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{9A5C0DE7-1242-45DC-958A-5F1C02447359}" name="City" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{91101EEF-B098-4806-B67F-D335F5215EA8}" name="State-Province" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{29EE5C18-19B4-49CF-A7CD-FBF847676B8F}" name="Country-Region" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{67C5D7DB-BE0F-4C4E-85BA-61A2DA081541}" name="Postal Code" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{FB3343D2-9B5C-4B08-B7E9-357FA59D1CBE}" name="CustomerKey" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{7421F27D-03E2-444C-AA6E-90890FED1AE4}" name="Customer ID" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{B3757213-A6EB-4CB4-850D-97295F99C216}" name="Customer" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{9A5C0DE7-1242-45DC-958A-5F1C02447359}" name="City" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{91101EEF-B098-4806-B67F-D335F5215EA8}" name="State-Province" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{29EE5C18-19B4-49CF-A7CD-FBF847676B8F}" name="Country-Region" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{67C5D7DB-BE0F-4C4E-85BA-61A2DA081541}" name="Postal Code" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12115,37 +12099,37 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6109ADF3-C642-4892-A661-5409159CC6DD}" name="Sales" displayName="Sales" ref="A1:N101" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6109ADF3-C642-4892-A661-5409159CC6DD}" name="Sales" displayName="Sales" ref="A1:N101" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:N101" xr:uid="{5713122C-A3A4-481F-87BC-68CF774F00A5}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{315A4E82-D259-4937-942A-36FFD5C484FB}" name="CodVenta" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{E8631656-3AB6-4F1B-9452-B004F5AD664D}" name="CodCliente" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{BFBAE016-B4A0-488A-8A11-66E3FB1DA1FD}" name="CodProducto" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{266CD5E5-7EDB-40BD-8E96-C35E91CD4DF8}" name="Fecha Orden" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{4CB7987E-FAB5-44F1-9A19-38A4CB472863}" name="Cant Orden" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{11D09D2B-06D7-4804-B8C3-6D080DC65EDB}" name="Precio Unit." dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{86D48D28-581E-4AD9-962A-166A8ABC54E3}" name="Subtotal" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{315A4E82-D259-4937-942A-36FFD5C484FB}" name="CodVenta" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E8631656-3AB6-4F1B-9452-B004F5AD664D}" name="CodCliente" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BFBAE016-B4A0-488A-8A11-66E3FB1DA1FD}" name="CodProducto" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{266CD5E5-7EDB-40BD-8E96-C35E91CD4DF8}" name="Fecha Orden" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{4CB7987E-FAB5-44F1-9A19-38A4CB472863}" name="Cant Orden" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{11D09D2B-06D7-4804-B8C3-6D080DC65EDB}" name="Precio Unit." dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{86D48D28-581E-4AD9-962A-166A8ABC54E3}" name="Subtotal" dataDxfId="11">
       <calculatedColumnFormula>Sales[[#This Row],[Precio Unit.]]*Sales[[#This Row],[Cant Orden]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{01359EF9-B9D5-470C-A877-338D15A43901}" name="Impuesto" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{01359EF9-B9D5-470C-A877-338D15A43901}" name="Impuesto" dataDxfId="10">
       <calculatedColumnFormula>Sales[[#This Row],[Subtotal]]*DatosExtra!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{BCD34393-A718-4B2C-82C4-8C974BF7388E}" name="Total" dataDxfId="15">
+    <tableColumn id="11" xr3:uid="{BCD34393-A718-4B2C-82C4-8C974BF7388E}" name="Total" dataDxfId="9">
       <calculatedColumnFormula>+Sales[[#This Row],[Impuesto]]+Sales[[#This Row],[Subtotal]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0364C283-2E7D-4270-AE0A-82A0EB096620}" name="Cliente" dataDxfId="14">
+    <tableColumn id="12" xr3:uid="{0364C283-2E7D-4270-AE0A-82A0EB096620}" name="Cliente" dataDxfId="8">
       <calculatedColumnFormula>VLOOKUP(Sales[[#This Row],[CodCliente]],Customers[#All],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F4FEE369-D989-4887-96C8-E627B49B443C}" name="Producto" dataDxfId="13">
+    <tableColumn id="13" xr3:uid="{F4FEE369-D989-4887-96C8-E627B49B443C}" name="Producto" dataDxfId="7">
       <calculatedColumnFormula>VLOOKUP(Sales[[#This Row],[CodProducto]],Products[#All],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{8F08DC3E-72AE-4734-BC88-082396597102}" name="Año" dataDxfId="12">
+    <tableColumn id="14" xr3:uid="{8F08DC3E-72AE-4734-BC88-082396597102}" name="Año" dataDxfId="6">
       <calculatedColumnFormula>YEAR(Sales[[#This Row],[Fecha Orden]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7D5BB195-6C46-46B6-9EC5-B7D4C4FFFB1A}" name="Mes" dataDxfId="11">
+    <tableColumn id="15" xr3:uid="{7D5BB195-6C46-46B6-9EC5-B7D4C4FFFB1A}" name="Mes" dataDxfId="5">
       <calculatedColumnFormula>TEXT(Sales[[#This Row],[Fecha Orden]],"mmmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{618C5AF9-D038-4D6C-A293-FA20E6E5EDBC}" name="Categoría" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{618C5AF9-D038-4D6C-A293-FA20E6E5EDBC}" name="Categoría" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(Sales[[#This Row],[CodProducto]],Products[#All],7,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12452,7 +12436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9CC213-9B78-4BC4-AD2B-9CF5F3AF526B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -19297,7 +19281,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A101">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -19889,7 +19873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3F688F-A3C1-47FF-8FB2-8178241206B3}">
   <dimension ref="A5:O5"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
